--- a/Lab02.xlsx
+++ b/Lab02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\truc nguyen\Downloads\HK2-NAM4\Đảm bảo chất lượng và kiểm thử - Huynh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{004CAEBA-47E9-4677-8518-0CB2FC6CB61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B7D438-3B48-4EF0-B98F-62C4472801FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{5CA336F1-D579-470E-893F-437FFFD8D474}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{5CA336F1-D579-470E-893F-437FFFD8D474}"/>
   </bookViews>
   <sheets>
     <sheet name="BT 1" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="141">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -436,6 +436,36 @@
   </si>
   <si>
     <t>120 dòng</t>
+  </si>
+  <si>
+    <t>Chuỗi rỗng</t>
+  </si>
+  <si>
+    <t>1–10 ký tự</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>11–19 ký tự</t>
+  </si>
+  <si>
+    <t>123456789012</t>
+  </si>
+  <si>
+    <t>20–30 ký tự</t>
+  </si>
+  <si>
+    <t>12345678901234567890</t>
+  </si>
+  <si>
+    <t>&gt;30 ký tự</t>
+  </si>
+  <si>
+    <t>123456789012345678901234567890</t>
+  </si>
+  <si>
+    <t>Không phải số</t>
   </si>
 </sst>
 </file>
@@ -496,18 +526,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,11 +878,11 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -876,9 +906,9 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -890,7 +920,7 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>46028</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -904,82 +934,82 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="F11" s="2">
         <v>3</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="F12" s="2">
         <v>4</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1095,18 +1125,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:J12"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1140,11 +1170,11 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1168,9 +1198,9 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1182,7 +1212,7 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>46028</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1196,82 +1226,82 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="F11" s="2">
         <v>3</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="F12" s="2">
         <v>4</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1378,17 +1408,17 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G12:J12"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1423,11 +1453,11 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1451,9 +1481,9 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1465,7 +1495,7 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>46028</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1479,82 +1509,82 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="F11" s="2">
         <v>3</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="F12" s="2">
         <v>4</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1697,18 +1727,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:J12"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1742,11 +1772,11 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1770,9 +1800,9 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1784,7 +1814,7 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>46028</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1798,82 +1828,82 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="F11" s="2">
         <v>3</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="F12" s="2">
         <v>4</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1969,18 +1999,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:J12"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1991,7 +2021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580DB1BE-F112-405C-8350-FAB912909952}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
@@ -2014,11 +2044,11 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2042,9 +2072,9 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2056,7 +2086,7 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>46028</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2070,82 +2100,82 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="F11" s="2">
         <v>3</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="F12" s="2">
         <v>4</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2161,7 +2191,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>0.5</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2169,7 +2199,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>0.7</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2256,18 +2286,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:J12"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2279,7 +2309,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2301,11 +2331,11 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2329,9 +2359,9 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2343,7 +2373,7 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>46028</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2357,82 +2387,82 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="F11" s="2">
         <v>3</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="F12" s="2">
         <v>4</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2475,7 +2505,7 @@
       <c r="B19" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2496,10 +2526,7 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
         <v>49</v>
@@ -2510,13 +2537,13 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2524,10 +2551,10 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D24" t="s">
         <v>49</v>
@@ -2538,13 +2565,13 @@
         <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2552,13 +2579,13 @@
         <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2566,10 +2593,10 @@
         <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
         <v>49</v>
@@ -2577,18 +2604,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:J12"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2599,7 +2626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC064B4A-3AEC-42C7-9D83-49274C020121}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -2622,11 +2649,11 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2650,9 +2677,9 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2664,7 +2691,7 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>46028</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2678,82 +2705,82 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="F11" s="2">
         <v>3</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="F12" s="2">
         <v>4</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2796,7 +2823,7 @@
       <c r="B19" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2898,18 +2925,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:J12"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
